--- a/testRunner/GetReport.xlsx
+++ b/testRunner/GetReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -35,16 +35,16 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>com.hexin.plat.kaihu</t>
-  </si>
-  <si>
-    <t>10M</t>
-  </si>
-  <si>
-    <t>V5.10.01</t>
-  </si>
-  <si>
-    <t>2017-03-17 15:08 PM</t>
+    <t>com.example.monkneytest</t>
+  </si>
+  <si>
+    <t>0M</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2017-03-18 12:33 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>77秒</t>
+    <t>39秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -114,10 +114,10 @@
 </t>
   </si>
   <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>89M</t>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>54M</t>
   </si>
   <si>
     <t>0</t>
@@ -171,22 +171,19 @@
     <t>日志</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>normal_login</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>退出登录</t>
-  </si>
-  <si>
-    <t>logout</t>
+    <t>奔溃测试</t>
+  </si>
+  <si>
+    <t>闪退测试2</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>检查不到元素</t>
   </si>
 </sst>
 </file>
@@ -288,6 +285,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="login_20170318123404_CheckPoint_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="571500"/>
+          <a:ext cx="1028700" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -635,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -652,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -834,7 +874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
+    <row r="3" spans="1:15" ht="110" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -845,16 +885,16 @@
         <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>34</v>
@@ -869,53 +909,17 @@
       <c r="L3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/testRunner/GetReport.xlsx
+++ b/testRunner/GetReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>2017-03-18 12:33 PM</t>
+    <t>2017-03-18 15:49 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>39秒</t>
+    <t>25秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -114,76 +114,79 @@
 </t>
   </si>
   <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>54M</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
+    <t>测试详情</t>
+  </si>
+  <si>
+    <t>机型</t>
+  </si>
+  <si>
+    <t>用例ID</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>用例介绍</t>
+  </si>
+  <si>
+    <t>用例名字</t>
+  </si>
+  <si>
+    <t>内存峰值(M)</t>
+  </si>
+  <si>
+    <t>内存均值(M)</t>
+  </si>
+  <si>
+    <t>CPU峰值</t>
+  </si>
+  <si>
+    <t>CPU均值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试结果 </t>
+  </si>
+  <si>
+    <t>失败原因</t>
+  </si>
+  <si>
+    <t>截图</t>
+  </si>
+  <si>
+    <t>日志</t>
+  </si>
+  <si>
+    <t>奔溃测试</t>
+  </si>
+  <si>
+    <t>闪退测试2</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56671%</t>
+  </si>
+  <si>
+    <t>28336%</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>测试详情</t>
-  </si>
-  <si>
-    <t>机型</t>
-  </si>
-  <si>
-    <t>用例ID</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>用例介绍</t>
-  </si>
-  <si>
-    <t>用例名字</t>
-  </si>
-  <si>
-    <t>内存峰值(M)</t>
-  </si>
-  <si>
-    <t>内存均值(M)</t>
-  </si>
-  <si>
-    <t>CPU峰值</t>
-  </si>
-  <si>
-    <t>CPU均值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试结果 </t>
-  </si>
-  <si>
-    <t>失败原因</t>
-  </si>
-  <si>
-    <t>截图</t>
-  </si>
-  <si>
-    <t>日志</t>
-  </si>
-  <si>
-    <t>奔溃测试</t>
-  </si>
-  <si>
-    <t>闪退测试2</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>失败</t>
   </si>
   <si>
-    <t>检查不到元素</t>
+    <t>崩溃了</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="login_20170318123404_CheckPoint_NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="login_20170318155017_CheckPoint_NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -775,17 +778,19 @@
         <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1"/>
@@ -810,7 +815,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -829,31 +834,31 @@
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>27</v>
@@ -862,16 +867,16 @@
         <v>26</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="110" customHeight="1">
@@ -882,37 +887,38 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="3"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1"/>
   </sheetData>
